--- a/data/trans_orig/P23-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A4252C-5C76-4C01-9290-B18C98AACBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04582526-E66D-40DB-85C6-06A2EDC20959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6BFD785D-546E-4734-98E9-915263648068}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D6C5520C-C5CA-495F-A27B-0B5B1EC97755}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="488">
   <si>
     <t>Población según consumo de tabaco en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -75,1471 +75,1432 @@
     <t>55,91%</t>
   </si>
   <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
   </si>
   <si>
     <t>60,57%</t>
   </si>
   <si>
-    <t>56,32%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>No fuma pero ha fumado</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>Sí fuma pero no diariamente</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>No fuma pero ha fumado</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>Sí fuma pero no diariamente</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>2,83%</t>
   </si>
   <si>
     <t>36,76%</t>
   </si>
   <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
+    <t>38,4%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A51856B-6566-4D4C-B4AA-9EEBE79A060A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE9495A-E34C-4CD3-B5C2-8F33FE8144DB}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2724,10 +2685,10 @@
         <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,10 +2703,10 @@
         <v>320994</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>115</v>
@@ -3220,13 +3181,13 @@
         <v>2226</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -3235,13 +3196,13 @@
         <v>8223</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3217,13 @@
         <v>122694</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>43</v>
@@ -3271,13 +3232,13 @@
         <v>44661</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>168</v>
@@ -3286,13 +3247,13 @@
         <v>167356</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,7 +3309,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3360,13 +3321,13 @@
         <v>190632</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>629</v>
@@ -3375,13 +3336,13 @@
         <v>642845</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>827</v>
@@ -3390,13 +3351,13 @@
         <v>833477</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3372,13 @@
         <v>236008</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -3426,13 +3387,13 @@
         <v>22777</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>266</v>
@@ -3441,13 +3402,13 @@
         <v>258785</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3423,13 @@
         <v>6647</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3477,13 +3438,13 @@
         <v>890</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -3492,13 +3453,13 @@
         <v>7538</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3474,13 @@
         <v>69179</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -3528,13 +3489,13 @@
         <v>10329</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -3543,13 +3504,13 @@
         <v>79508</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3578,13 @@
         <v>1260667</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>2204</v>
@@ -3632,13 +3593,13 @@
         <v>2259524</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>3442</v>
@@ -3650,10 +3611,10 @@
         <v>92</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3629,13 @@
         <v>629553</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H35" s="7">
         <v>248</v>
@@ -3683,13 +3644,13 @@
         <v>256344</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>874</v>
@@ -3698,13 +3659,13 @@
         <v>885897</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3680,13 @@
         <v>85037</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>85</v>
@@ -3734,13 +3695,13 @@
         <v>84519</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>169</v>
@@ -3749,13 +3710,13 @@
         <v>169556</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3731,13 @@
         <v>1300244</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>760</v>
@@ -3785,13 +3746,13 @@
         <v>778812</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>2025</v>
@@ -3800,13 +3761,13 @@
         <v>2079056</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,7 +3823,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3884,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559F266B-9CD5-4322-BA29-05A9ADEC28F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81688E04-9416-4F76-8257-31BA8930B620}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3901,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4008,13 +3969,13 @@
         <v>270321</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>258</v>
@@ -4023,13 +3984,13 @@
         <v>261832</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>521</v>
@@ -4038,13 +3999,13 @@
         <v>532153</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4020,13 @@
         <v>17739</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -4074,13 +4035,13 @@
         <v>19229</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -4089,13 +4050,13 @@
         <v>36969</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,10 +4074,10 @@
         <v>61</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -4125,13 +4086,13 @@
         <v>17782</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -4140,13 +4101,13 @@
         <v>42105</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4122,13 @@
         <v>141763</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>125</v>
@@ -4176,13 +4137,13 @@
         <v>130390</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>267</v>
@@ -4191,13 +4152,13 @@
         <v>272153</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4226,13 @@
         <v>264230</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>304</v>
+        <v>125</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H9" s="7">
         <v>256</v>
@@ -4280,13 +4241,13 @@
         <v>275274</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M9" s="7">
         <v>515</v>
@@ -4295,13 +4256,13 @@
         <v>539504</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4277,13 @@
         <v>73693</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
         <v>81</v>
@@ -4331,13 +4292,13 @@
         <v>86447</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>152</v>
@@ -4346,13 +4307,13 @@
         <v>160141</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4328,13 @@
         <v>30533</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -4382,13 +4343,13 @@
         <v>23291</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -4397,13 +4358,13 @@
         <v>53824</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4379,13 @@
         <v>318630</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H12" s="7">
         <v>214</v>
@@ -4433,13 +4394,13 @@
         <v>225243</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M12" s="7">
         <v>522</v>
@@ -4448,13 +4409,13 @@
         <v>543873</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4483,13 @@
         <v>242223</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
         <v>314</v>
@@ -4537,13 +4498,13 @@
         <v>335535</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
         <v>544</v>
@@ -4552,13 +4513,13 @@
         <v>577758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4534,13 @@
         <v>113281</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H15" s="7">
         <v>118</v>
@@ -4588,13 +4549,13 @@
         <v>126089</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="M15" s="7">
         <v>228</v>
@@ -4603,13 +4564,13 @@
         <v>239370</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4585,13 @@
         <v>17441</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4639,13 +4600,13 @@
         <v>12405</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -4654,13 +4615,13 @@
         <v>29846</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4636,13 @@
         <v>307889</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
         <v>223</v>
@@ -4690,13 +4651,13 @@
         <v>235834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>517</v>
@@ -4705,13 +4666,13 @@
         <v>543724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4740,13 @@
         <v>162820</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>374</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>252</v>
@@ -4794,13 +4755,13 @@
         <v>283070</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
         <v>399</v>
@@ -4809,13 +4770,13 @@
         <v>445890</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4791,13 @@
         <v>172014</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -4845,13 +4806,13 @@
         <v>92665</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="M20" s="7">
         <v>234</v>
@@ -4860,13 +4821,13 @@
         <v>264679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4842,13 @@
         <v>12969</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>390</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -4896,13 +4857,13 @@
         <v>17216</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -4911,13 +4872,13 @@
         <v>30185</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>396</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4893,13 @@
         <v>266813</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
@@ -4947,13 +4908,13 @@
         <v>223249</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="M22" s="7">
         <v>427</v>
@@ -4962,13 +4923,13 @@
         <v>490062</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +4997,13 @@
         <v>125369</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H24" s="7">
         <v>300</v>
@@ -5051,13 +5012,13 @@
         <v>328212</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>205</v>
+        <v>397</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="M24" s="7">
         <v>415</v>
@@ -5066,13 +5027,13 @@
         <v>453581</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5048,13 @@
         <v>147690</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -5102,13 +5063,13 @@
         <v>51760</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>408</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -5117,13 +5078,13 @@
         <v>199450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5099,13 @@
         <v>6263</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5153,13 +5114,13 @@
         <v>2180</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>413</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -5168,13 +5129,13 @@
         <v>8443</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5150,13 @@
         <v>150107</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H27" s="7">
         <v>58</v>
@@ -5204,13 +5165,13 @@
         <v>65648</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="M27" s="7">
         <v>194</v>
@@ -5219,13 +5180,13 @@
         <v>215755</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,7 +5242,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5293,13 +5254,13 @@
         <v>166911</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>429</v>
       </c>
       <c r="H29" s="7">
         <v>658</v>
@@ -5308,13 +5269,13 @@
         <v>702913</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M29" s="7">
         <v>805</v>
@@ -5323,13 +5284,13 @@
         <v>869824</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5305,13 @@
         <v>314421</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -5362,10 +5323,10 @@
         <v>21</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M30" s="7">
         <v>305</v>
@@ -5374,13 +5335,13 @@
         <v>331451</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5356,13 @@
         <v>4373</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>255</v>
+        <v>445</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -5410,13 +5371,13 @@
         <v>986</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -5425,13 +5386,13 @@
         <v>5358</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5407,13 @@
         <v>73933</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -5461,13 +5422,13 @@
         <v>22046</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="M32" s="7">
         <v>84</v>
@@ -5476,13 +5437,13 @@
         <v>95979</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5511,13 @@
         <v>1231874</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H34" s="7">
         <v>2038</v>
@@ -5565,13 +5526,13 @@
         <v>2186836</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="M34" s="7">
         <v>3199</v>
@@ -5580,13 +5541,13 @@
         <v>3418710</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5562,13 @@
         <v>838839</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H35" s="7">
         <v>360</v>
@@ -5616,13 +5577,13 @@
         <v>393221</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="M35" s="7">
         <v>1137</v>
@@ -5631,13 +5592,13 @@
         <v>1232059</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,10 +5613,10 @@
         <v>95901</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>485</v>
+        <v>21</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>287</v>
@@ -5667,13 +5628,13 @@
         <v>73860</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>488</v>
+        <v>244</v>
       </c>
       <c r="M36" s="7">
         <v>157</v>
@@ -5682,13 +5643,13 @@
         <v>169761</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5664,13 @@
         <v>1259135</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>493</v>
+        <v>418</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="H37" s="7">
         <v>831</v>
@@ -5718,13 +5679,13 @@
         <v>902410</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="M37" s="7">
         <v>2011</v>
@@ -5733,13 +5694,13 @@
         <v>2161546</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,7 +5756,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04582526-E66D-40DB-85C6-06A2EDC20959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B418659-1120-4A99-8E81-5DDC3C5868B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D6C5520C-C5CA-495F-A27B-0B5B1EC97755}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DD33B147-051B-445F-91A7-592058E151D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="487">
   <si>
     <t>Población según consumo de tabaco en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>55,91%</t>
   </si>
   <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
   </si>
   <si>
     <t>60,57%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
   </si>
   <si>
     <t>No fuma pero ha fumado</t>
@@ -105,1402 +105,1399 @@
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>Sí fuma pero no diariamente</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>Sí fuma pero no diariamente</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>36,81%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
   </si>
   <si>
     <t>39,02%</t>
   </si>
   <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>36,76%</t>
   </si>
   <si>
-    <t>38,4%</t>
+    <t>38,29%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE9495A-E34C-4CD3-B5C2-8F33FE8144DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C8CD56-A70E-4D91-9FFB-1D03AE444085}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2655,10 +2652,10 @@
         <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2670,10 +2667,10 @@
         <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -2682,10 +2679,10 @@
         <v>41703</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>112</v>
@@ -2939,13 +2936,13 @@
         <v>18685</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2957,13 @@
         <v>230768</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>125</v>
@@ -2975,13 +2972,13 @@
         <v>130248</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>340</v>
@@ -2990,13 +2987,13 @@
         <v>361016</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,7 +3049,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3064,13 +3061,13 @@
         <v>128025</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>334</v>
@@ -3079,13 +3076,13 @@
         <v>339659</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>465</v>
@@ -3094,13 +3091,13 @@
         <v>467684</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3112,13 @@
         <v>129994</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -3130,13 +3127,13 @@
         <v>17439</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>147</v>
@@ -3145,13 +3142,13 @@
         <v>147433</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3163,13 @@
         <v>5996</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3181,13 +3178,13 @@
         <v>2226</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -3196,13 +3193,13 @@
         <v>8223</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3214,13 @@
         <v>122694</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>43</v>
@@ -3232,13 +3229,13 @@
         <v>44661</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>168</v>
@@ -3247,13 +3244,13 @@
         <v>167356</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,7 +3306,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3321,13 +3318,13 @@
         <v>190632</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>629</v>
@@ -3336,13 +3333,13 @@
         <v>642845</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>827</v>
@@ -3351,13 +3348,13 @@
         <v>833477</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3369,13 @@
         <v>236008</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -3387,7 +3384,7 @@
         <v>22777</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>207</v>
@@ -3408,7 +3405,7 @@
         <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,10 +3420,10 @@
         <v>6647</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>213</v>
@@ -3441,7 +3438,7 @@
         <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>215</v>
@@ -3492,10 +3489,10 @@
         <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -3504,7 +3501,7 @@
         <v>79508</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>225</v>
@@ -3605,7 +3602,7 @@
         <v>3442</v>
       </c>
       <c r="N34" s="7">
-        <v>3520191</v>
+        <v>3520190</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>92</v>
@@ -3683,10 +3680,10 @@
         <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="H36" s="7">
         <v>85</v>
@@ -3698,10 +3695,10 @@
         <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>169</v>
@@ -3710,13 +3707,13 @@
         <v>169556</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3728,13 @@
         <v>1300244</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>760</v>
@@ -3746,13 +3743,13 @@
         <v>778812</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>2025</v>
@@ -3761,13 +3758,13 @@
         <v>2079056</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,7 +3806,7 @@
         <v>6510</v>
       </c>
       <c r="N38" s="7">
-        <v>6654699</v>
+        <v>6654698</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3823,7 +3820,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3845,7 +3842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81688E04-9416-4F76-8257-31BA8930B620}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC240957-7E4A-4C82-B6B3-C4CD6566E1DB}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,7 +3859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3969,13 +3966,13 @@
         <v>270321</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>258</v>
@@ -3984,13 +3981,13 @@
         <v>261832</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>521</v>
@@ -3999,13 +3996,13 @@
         <v>532153</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4017,13 @@
         <v>17739</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -4035,13 +4032,13 @@
         <v>19229</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -4050,13 +4047,13 @@
         <v>36969</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,10 +4071,10 @@
         <v>61</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -4086,13 +4083,13 @@
         <v>17782</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>284</v>
+        <v>213</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -4101,13 +4098,13 @@
         <v>42105</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4119,13 @@
         <v>141763</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H7" s="7">
         <v>125</v>
@@ -4137,13 +4134,13 @@
         <v>130390</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M7" s="7">
         <v>267</v>
@@ -4152,13 +4149,13 @@
         <v>272153</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4223,13 @@
         <v>264230</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H9" s="7">
         <v>256</v>
@@ -4241,13 +4238,13 @@
         <v>275274</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M9" s="7">
         <v>515</v>
@@ -4256,13 +4253,13 @@
         <v>539504</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4274,13 @@
         <v>73693</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>81</v>
@@ -4292,13 +4289,13 @@
         <v>86447</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>152</v>
@@ -4307,13 +4304,13 @@
         <v>160141</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4325,13 @@
         <v>30533</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -4343,13 +4340,13 @@
         <v>23291</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -4358,13 +4355,13 @@
         <v>53824</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4376,13 @@
         <v>318630</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H12" s="7">
         <v>214</v>
@@ -4394,13 +4391,13 @@
         <v>225243</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M12" s="7">
         <v>522</v>
@@ -4409,13 +4406,13 @@
         <v>543873</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4480,13 @@
         <v>242223</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H14" s="7">
         <v>314</v>
@@ -4498,13 +4495,13 @@
         <v>335535</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M14" s="7">
         <v>544</v>
@@ -4513,13 +4510,13 @@
         <v>577758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4531,13 @@
         <v>113281</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H15" s="7">
         <v>118</v>
@@ -4549,13 +4546,13 @@
         <v>126089</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>133</v>
+        <v>342</v>
       </c>
       <c r="M15" s="7">
         <v>228</v>
@@ -4564,13 +4561,13 @@
         <v>239370</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4582,13 @@
         <v>17441</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>349</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4600,13 +4597,13 @@
         <v>12405</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -4615,13 +4612,13 @@
         <v>29846</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4633,13 @@
         <v>307889</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>223</v>
@@ -4651,13 +4648,13 @@
         <v>235834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
         <v>517</v>
@@ -4666,13 +4663,13 @@
         <v>543724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4737,13 @@
         <v>162820</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>362</v>
       </c>
       <c r="H19" s="7">
         <v>252</v>
@@ -4755,13 +4752,13 @@
         <v>283070</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>399</v>
@@ -4770,13 +4767,13 @@
         <v>445890</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4788,13 @@
         <v>172014</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -4806,13 +4803,13 @@
         <v>92665</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M20" s="7">
         <v>234</v>
@@ -4821,13 +4818,13 @@
         <v>264679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>379</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4839,13 @@
         <v>12969</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>376</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -4857,13 +4854,13 @@
         <v>17216</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -4872,13 +4869,13 @@
         <v>30185</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>382</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4890,13 @@
         <v>266813</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
@@ -4908,13 +4905,13 @@
         <v>223249</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>389</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M22" s="7">
         <v>427</v>
@@ -4923,13 +4920,13 @@
         <v>490062</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,7 +4982,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4997,13 +4994,13 @@
         <v>125369</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H24" s="7">
         <v>300</v>
@@ -5012,13 +5009,13 @@
         <v>328212</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M24" s="7">
         <v>415</v>
@@ -5027,13 +5024,13 @@
         <v>453581</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5045,13 @@
         <v>147690</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -5063,13 +5060,13 @@
         <v>51760</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -5078,13 +5075,13 @@
         <v>199450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5096,13 @@
         <v>6263</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>414</v>
+        <v>73</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5114,13 +5111,13 @@
         <v>2180</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -5129,10 +5126,10 @@
         <v>8443</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>415</v>
@@ -5150,13 +5147,13 @@
         <v>150107</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H27" s="7">
         <v>58</v>
@@ -5165,13 +5162,13 @@
         <v>65648</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M27" s="7">
         <v>194</v>
@@ -5180,13 +5177,13 @@
         <v>215755</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,7 +5239,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5254,13 +5251,13 @@
         <v>166911</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H29" s="7">
         <v>658</v>
@@ -5269,13 +5266,13 @@
         <v>702913</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M29" s="7">
         <v>805</v>
@@ -5284,13 +5281,13 @@
         <v>869824</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5302,13 @@
         <v>314421</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -5323,10 +5320,10 @@
         <v>21</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M30" s="7">
         <v>305</v>
@@ -5335,13 +5332,13 @@
         <v>331451</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5353,13 @@
         <v>4373</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>444</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>445</v>
+        <v>271</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -5374,10 +5371,10 @@
         <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -5386,13 +5383,13 @@
         <v>5358</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5404,13 @@
         <v>73933</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -5422,13 +5419,13 @@
         <v>22046</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>454</v>
+        <v>146</v>
       </c>
       <c r="M32" s="7">
         <v>84</v>
@@ -5437,13 +5434,13 @@
         <v>95979</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5508,13 @@
         <v>1231874</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H34" s="7">
         <v>2038</v>
@@ -5526,13 +5523,13 @@
         <v>2186836</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M34" s="7">
         <v>3199</v>
@@ -5541,13 +5538,13 @@
         <v>3418710</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5559,13 @@
         <v>838839</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H35" s="7">
         <v>360</v>
@@ -5577,13 +5574,13 @@
         <v>393221</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M35" s="7">
         <v>1137</v>
@@ -5592,13 +5589,13 @@
         <v>1232059</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>474</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5610,13 @@
         <v>95901</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>287</v>
+        <v>473</v>
       </c>
       <c r="H36" s="7">
         <v>67</v>
@@ -5628,13 +5625,13 @@
         <v>73860</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M36" s="7">
         <v>157</v>
@@ -5643,13 +5640,13 @@
         <v>169761</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5661,13 @@
         <v>1259135</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H37" s="7">
         <v>831</v>
@@ -5679,13 +5676,13 @@
         <v>902410</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M37" s="7">
         <v>2011</v>
@@ -5694,13 +5691,13 @@
         <v>2161546</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,7 +5753,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23-Edad-trans_orig.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B418659-1120-4A99-8E81-5DDC3C5868B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EFFAD9F-B23D-4EC1-98E3-68E60D8B4FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DD33B147-051B-445F-91A7-592058E151D8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{407B30E2-D612-4303-B667-8CA6155E0CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="487">
-  <si>
-    <t>Población según consumo de tabaco en 2007 (Tasa respuesta: 99,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="792">
+  <si>
+    <t>Población según consumo de tabaco (2007/2012) en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No fuma ni ha fumado nunca de manera habitual</t>
@@ -192,7 +193,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>40,39%</t>
@@ -303,7 +304,7 @@
     <t>45,94%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>33,14%</t>
@@ -405,7 +406,7 @@
     <t>44,59%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>30,37%</t>
@@ -513,7 +514,7 @@
     <t>38,24%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>33,11%</t>
@@ -618,886 +619,1801 @@
     <t>24,17%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco (2007/2012) en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>3,79%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco (2007/2012) en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
 </sst>
 </file>
@@ -1909,8 +2825,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C8CD56-A70E-4D91-9FFB-1D03AE444085}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0C6CA7-61D0-4E13-988B-3F7F2B3AFE42}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3312,10 +4228,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="D29" s="7">
-        <v>190632</v>
+        <v>116701</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>194</v>
@@ -3327,10 +4243,10 @@
         <v>196</v>
       </c>
       <c r="H29" s="7">
-        <v>629</v>
+        <v>350</v>
       </c>
       <c r="I29" s="7">
-        <v>642845</v>
+        <v>322806</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>197</v>
@@ -3342,10 +4258,10 @@
         <v>199</v>
       </c>
       <c r="M29" s="7">
-        <v>827</v>
+        <v>468</v>
       </c>
       <c r="N29" s="7">
-        <v>833477</v>
+        <v>439507</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>200</v>
@@ -3363,10 +4279,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="D30" s="7">
-        <v>236008</v>
+        <v>122710</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>203</v>
@@ -3378,10 +4294,10 @@
         <v>205</v>
       </c>
       <c r="H30" s="7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I30" s="7">
-        <v>22777</v>
+        <v>13543</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>206</v>
@@ -3393,10 +4309,10 @@
         <v>208</v>
       </c>
       <c r="M30" s="7">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="N30" s="7">
-        <v>258785</v>
+        <v>136252</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>209</v>
@@ -3414,19 +4330,19 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>6647</v>
+        <v>3504</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3435,28 +4351,28 @@
         <v>890</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>179</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N31" s="7">
-        <v>7538</v>
+        <v>4395</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,49 +4381,49 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D32" s="7">
-        <v>69179</v>
+        <v>49668</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I32" s="7">
-        <v>10329</v>
+        <v>5694</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="N32" s="7">
-        <v>79508</v>
+        <v>55363</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,10 +4432,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D33" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -3531,10 +4447,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I33" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -3546,10 +4462,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N33" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -3563,55 +4479,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1238</v>
+        <v>80</v>
       </c>
       <c r="D34" s="7">
-        <v>1260667</v>
+        <v>73931</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
-        <v>2204</v>
+        <v>279</v>
       </c>
       <c r="I34" s="7">
-        <v>2259524</v>
+        <v>320039</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
-        <v>3442</v>
+        <v>359</v>
       </c>
       <c r="N34" s="7">
-        <v>3520190</v>
+        <v>393970</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,49 +4536,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>626</v>
+        <v>117</v>
       </c>
       <c r="D35" s="7">
-        <v>629553</v>
+        <v>113298</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
-        <v>248</v>
+        <v>7</v>
       </c>
       <c r="I35" s="7">
-        <v>256344</v>
+        <v>9234</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
-        <v>874</v>
+        <v>124</v>
       </c>
       <c r="N35" s="7">
-        <v>885897</v>
+        <v>122533</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,49 +4587,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D36" s="7">
-        <v>85037</v>
+        <v>3143</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>84519</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="N36" s="7">
-        <v>169556</v>
+        <v>3143</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,49 +4638,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>1265</v>
+        <v>20</v>
       </c>
       <c r="D37" s="7">
-        <v>1300244</v>
+        <v>19510</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
-        <v>760</v>
+        <v>4</v>
       </c>
       <c r="I37" s="7">
-        <v>778812</v>
+        <v>4635</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
-        <v>2025</v>
+        <v>24</v>
       </c>
       <c r="N37" s="7">
-        <v>2079056</v>
+        <v>24145</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,63 +4689,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>220</v>
+      </c>
+      <c r="D38" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>290</v>
+      </c>
+      <c r="I38" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>510</v>
+      </c>
+      <c r="N38" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1238</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1260667</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2204</v>
+      </c>
+      <c r="I39" s="7">
+        <v>2259523</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3442</v>
+      </c>
+      <c r="N39" s="7">
+        <v>3520190</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>626</v>
+      </c>
+      <c r="D40" s="7">
+        <v>629553</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H40" s="7">
+        <v>248</v>
+      </c>
+      <c r="I40" s="7">
+        <v>256344</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M40" s="7">
+        <v>874</v>
+      </c>
+      <c r="N40" s="7">
+        <v>885897</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>84</v>
+      </c>
+      <c r="D41" s="7">
+        <v>85037</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="7">
+        <v>85</v>
+      </c>
+      <c r="I41" s="7">
+        <v>84519</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M41" s="7">
+        <v>169</v>
+      </c>
+      <c r="N41" s="7">
+        <v>169556</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1265</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1300244</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H42" s="7">
+        <v>760</v>
+      </c>
+      <c r="I42" s="7">
+        <v>778811</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M42" s="7">
+        <v>2025</v>
+      </c>
+      <c r="N42" s="7">
+        <v>2079056</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3213</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>3275501</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>3297</v>
       </c>
-      <c r="I38" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>6510</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>6654698</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>259</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3842,8 +5016,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC240957-7E4A-4C82-B6B3-C4CD6566E1DB}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6706A9-7C7E-4F9D-B099-FA9F715A8302}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3859,7 +5033,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3966,13 +5140,13 @@
         <v>270321</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>258</v>
@@ -3981,13 +5155,13 @@
         <v>261832</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>521</v>
@@ -3996,13 +5170,13 @@
         <v>532153</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +5191,13 @@
         <v>17739</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -4032,13 +5206,13 @@
         <v>19229</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -4047,13 +5221,13 @@
         <v>36969</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,10 +5245,10 @@
         <v>61</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -4083,13 +5257,13 @@
         <v>17782</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>213</v>
+        <v>320</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -4098,13 +5272,13 @@
         <v>42105</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +5293,13 @@
         <v>141763</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>125</v>
@@ -4134,13 +5308,13 @@
         <v>130390</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>267</v>
@@ -4149,13 +5323,13 @@
         <v>272153</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +5397,13 @@
         <v>264230</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="H9" s="7">
         <v>256</v>
@@ -4238,13 +5412,13 @@
         <v>275274</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="M9" s="7">
         <v>515</v>
@@ -4253,13 +5427,13 @@
         <v>539504</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +5448,13 @@
         <v>73693</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>81</v>
@@ -4289,13 +5463,13 @@
         <v>86447</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>152</v>
@@ -4304,13 +5478,13 @@
         <v>160141</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +5499,13 @@
         <v>30533</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -4340,13 +5514,13 @@
         <v>23291</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -4355,13 +5529,13 @@
         <v>53824</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +5550,13 @@
         <v>318630</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>214</v>
@@ -4391,13 +5565,13 @@
         <v>225243</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>522</v>
@@ -4406,13 +5580,13 @@
         <v>543873</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +5654,13 @@
         <v>242223</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>314</v>
@@ -4495,13 +5669,13 @@
         <v>335535</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>544</v>
@@ -4510,13 +5684,13 @@
         <v>577758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +5705,13 @@
         <v>113281</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="H15" s="7">
         <v>118</v>
@@ -4546,13 +5720,13 @@
         <v>126089</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="M15" s="7">
         <v>228</v>
@@ -4561,13 +5735,13 @@
         <v>239370</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +5756,13 @@
         <v>17441</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4597,13 +5771,13 @@
         <v>12405</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -4612,10 +5786,10 @@
         <v>29846</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>73</v>
@@ -4633,13 +5807,13 @@
         <v>307889</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>223</v>
@@ -4648,13 +5822,13 @@
         <v>235834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>517</v>
@@ -4663,13 +5837,13 @@
         <v>543724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>359</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +5911,13 @@
         <v>162820</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="H19" s="7">
         <v>252</v>
@@ -4755,10 +5929,10 @@
         <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>399</v>
@@ -4767,13 +5941,13 @@
         <v>445890</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +5962,13 @@
         <v>172014</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -4803,13 +5977,13 @@
         <v>92665</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>234</v>
@@ -4818,10 +5992,10 @@
         <v>264679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>192</v>
@@ -4839,13 +6013,13 @@
         <v>12969</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -4854,13 +6028,13 @@
         <v>17216</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -4869,13 +6043,13 @@
         <v>30185</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +6064,13 @@
         <v>266813</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
@@ -4905,13 +6079,13 @@
         <v>223249</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>427</v>
@@ -4920,13 +6094,13 @@
         <v>490062</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +6168,13 @@
         <v>125369</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="H24" s="7">
         <v>300</v>
@@ -5009,13 +6183,13 @@
         <v>328212</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="M24" s="7">
         <v>415</v>
@@ -5024,13 +6198,13 @@
         <v>453581</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +6219,13 @@
         <v>147690</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -5060,13 +6234,13 @@
         <v>51760</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -5075,13 +6249,13 @@
         <v>199450</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,10 +6270,10 @@
         <v>6263</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>73</v>
@@ -5111,13 +6285,13 @@
         <v>2180</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -5126,13 +6300,13 @@
         <v>8443</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +6321,13 @@
         <v>150107</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="H27" s="7">
         <v>58</v>
@@ -5162,13 +6336,13 @@
         <v>65648</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="M27" s="7">
         <v>194</v>
@@ -5177,13 +6351,13 @@
         <v>215755</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,49 +6419,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="D29" s="7">
-        <v>166911</v>
+        <v>87671</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="H29" s="7">
-        <v>658</v>
+        <v>317</v>
       </c>
       <c r="I29" s="7">
-        <v>702913</v>
+        <v>324371</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="M29" s="7">
-        <v>805</v>
+        <v>396</v>
       </c>
       <c r="N29" s="7">
-        <v>869824</v>
+        <v>412042</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,49 +6470,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>289</v>
+        <v>159</v>
       </c>
       <c r="D30" s="7">
-        <v>314421</v>
+        <v>170861</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="H30" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I30" s="7">
-        <v>17030</v>
+        <v>10623</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>21</v>
+        <v>474</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="M30" s="7">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="N30" s="7">
-        <v>331451</v>
+        <v>181483</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,19 +6521,19 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>4373</v>
+        <v>1034</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>443</v>
+        <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>271</v>
+        <v>481</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -5368,28 +6542,28 @@
         <v>986</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>482</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>179</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="M31" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>5358</v>
+        <v>2020</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>446</v>
+        <v>179</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>447</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,49 +6572,49 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D32" s="7">
-        <v>73933</v>
+        <v>50220</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="H32" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I32" s="7">
-        <v>22046</v>
+        <v>18017</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>146</v>
+        <v>490</v>
       </c>
       <c r="M32" s="7">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="N32" s="7">
-        <v>95979</v>
+        <v>68237</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>454</v>
+        <v>492</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>455</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,10 +6623,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D33" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -5464,10 +6638,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I33" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -5479,10 +6653,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N33" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -5496,55 +6670,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1161</v>
+        <v>68</v>
       </c>
       <c r="D34" s="7">
-        <v>1231874</v>
+        <v>79239</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="H34" s="7">
-        <v>2038</v>
+        <v>341</v>
       </c>
       <c r="I34" s="7">
-        <v>2186836</v>
+        <v>378543</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="M34" s="7">
-        <v>3199</v>
+        <v>409</v>
       </c>
       <c r="N34" s="7">
-        <v>3418710</v>
+        <v>457782</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,49 +6727,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>777</v>
+        <v>130</v>
       </c>
       <c r="D35" s="7">
-        <v>838839</v>
+        <v>143560</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="H35" s="7">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="I35" s="7">
-        <v>393221</v>
+        <v>6408</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="M35" s="7">
-        <v>1137</v>
+        <v>136</v>
       </c>
       <c r="N35" s="7">
-        <v>1232059</v>
+        <v>149968</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>421</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,49 +6778,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D36" s="7">
-        <v>95901</v>
+        <v>3338</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="H36" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>73860</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>474</v>
+        <v>179</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>475</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>476</v>
+        <v>178</v>
       </c>
       <c r="M36" s="7">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="N36" s="7">
-        <v>169761</v>
+        <v>3338</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>477</v>
+        <v>182</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>474</v>
+        <v>179</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,49 +6829,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>1180</v>
+        <v>22</v>
       </c>
       <c r="D37" s="7">
-        <v>1259135</v>
+        <v>23713</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>291</v>
+        <v>514</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="H37" s="7">
-        <v>831</v>
+        <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>902410</v>
+        <v>4029</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>481</v>
+        <v>181</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>482</v>
+        <v>215</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="M37" s="7">
-        <v>2011</v>
+        <v>25</v>
       </c>
       <c r="N37" s="7">
-        <v>2161546</v>
+        <v>27742</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,63 +6880,2512 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>222</v>
+      </c>
+      <c r="D38" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>350</v>
+      </c>
+      <c r="I38" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>572</v>
+      </c>
+      <c r="N38" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1161</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1231874</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2038</v>
+      </c>
+      <c r="I39" s="7">
+        <v>2186836</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3199</v>
+      </c>
+      <c r="N39" s="7">
+        <v>3418710</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>777</v>
+      </c>
+      <c r="D40" s="7">
+        <v>838839</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="H40" s="7">
+        <v>360</v>
+      </c>
+      <c r="I40" s="7">
+        <v>393221</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1137</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1232059</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>90</v>
+      </c>
+      <c r="D41" s="7">
+        <v>95901</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="H41" s="7">
+        <v>67</v>
+      </c>
+      <c r="I41" s="7">
+        <v>73860</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="M41" s="7">
+        <v>157</v>
+      </c>
+      <c r="N41" s="7">
+        <v>169761</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1180</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1259135</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H42" s="7">
+        <v>831</v>
+      </c>
+      <c r="I42" s="7">
+        <v>902410</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="M42" s="7">
+        <v>2011</v>
+      </c>
+      <c r="N42" s="7">
+        <v>2161546</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3208</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>3425749</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>3296</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>3556327</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>6504</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>6982076</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>259</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AA07B4-1818-4AAB-9D9E-504AAC17AD28}">
+  <dimension ref="A1:Q44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>247</v>
+      </c>
+      <c r="D4" s="7">
+        <v>263507</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="H4" s="7">
+        <v>276</v>
+      </c>
+      <c r="I4" s="7">
+        <v>269200</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="M4" s="7">
+        <v>523</v>
+      </c>
+      <c r="N4" s="7">
+        <v>532708</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10402</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="H5" s="7">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20155</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="M5" s="7">
+        <v>30</v>
+      </c>
+      <c r="N5" s="7">
+        <v>30557</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12639</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="H6" s="7">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12216</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="M6" s="7">
+        <v>24</v>
+      </c>
+      <c r="N6" s="7">
+        <v>24854</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7">
+        <v>124</v>
+      </c>
+      <c r="D7" s="7">
+        <v>132915</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="H7" s="7">
+        <v>96</v>
+      </c>
+      <c r="I7" s="7">
+        <v>94184</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="M7" s="7">
+        <v>220</v>
+      </c>
+      <c r="N7" s="7">
+        <v>227099</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>393</v>
+      </c>
+      <c r="D8" s="7">
+        <v>419463</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
+        <v>404</v>
+      </c>
+      <c r="I8" s="7">
+        <v>395755</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <v>797</v>
+      </c>
+      <c r="N8" s="7">
+        <v>815218</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>264</v>
+      </c>
+      <c r="D9" s="7">
+        <v>271620</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="H9" s="7">
+        <v>297</v>
+      </c>
+      <c r="I9" s="7">
+        <v>288209</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="M9" s="7">
+        <v>561</v>
+      </c>
+      <c r="N9" s="7">
+        <v>559829</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>46</v>
+      </c>
+      <c r="D10" s="7">
+        <v>49176</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H10" s="7">
+        <v>62</v>
+      </c>
+      <c r="I10" s="7">
+        <v>60759</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="M10" s="7">
+        <v>108</v>
+      </c>
+      <c r="N10" s="7">
+        <v>109935</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7">
+        <v>29098</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H11" s="7">
+        <v>25</v>
+      </c>
+      <c r="I11" s="7">
+        <v>24139</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="M11" s="7">
+        <v>54</v>
+      </c>
+      <c r="N11" s="7">
+        <v>53237</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7">
+        <v>228</v>
+      </c>
+      <c r="D12" s="7">
+        <v>240602</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H12" s="7">
+        <v>195</v>
+      </c>
+      <c r="I12" s="7">
+        <v>190437</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M12" s="7">
+        <v>423</v>
+      </c>
+      <c r="N12" s="7">
+        <v>431039</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>567</v>
+      </c>
+      <c r="D13" s="7">
+        <v>590496</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7">
+        <v>579</v>
+      </c>
+      <c r="I13" s="7">
+        <v>563544</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1146</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1154040</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>305</v>
+      </c>
+      <c r="D14" s="7">
+        <v>316116</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="H14" s="7">
+        <v>341</v>
+      </c>
+      <c r="I14" s="7">
+        <v>340764</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="M14" s="7">
+        <v>646</v>
+      </c>
+      <c r="N14" s="7">
+        <v>656879</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7">
+        <v>79</v>
+      </c>
+      <c r="D15" s="7">
+        <v>84915</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="H15" s="7">
+        <v>98</v>
+      </c>
+      <c r="I15" s="7">
+        <v>99152</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="M15" s="7">
+        <v>177</v>
+      </c>
+      <c r="N15" s="7">
+        <v>184067</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20341</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>11182</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="M16" s="7">
+        <v>30</v>
+      </c>
+      <c r="N16" s="7">
+        <v>31523</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7">
+        <v>235</v>
+      </c>
+      <c r="D17" s="7">
+        <v>246653</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="H17" s="7">
+        <v>213</v>
+      </c>
+      <c r="I17" s="7">
+        <v>209362</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="M17" s="7">
+        <v>448</v>
+      </c>
+      <c r="N17" s="7">
+        <v>456015</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>637</v>
+      </c>
+      <c r="D18" s="7">
+        <v>668025</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7">
+        <v>664</v>
+      </c>
+      <c r="I18" s="7">
+        <v>660459</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1301</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1328483</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>217</v>
+      </c>
+      <c r="D19" s="7">
+        <v>237464</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="H19" s="7">
+        <v>295</v>
+      </c>
+      <c r="I19" s="7">
+        <v>314557</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="M19" s="7">
+        <v>512</v>
+      </c>
+      <c r="N19" s="7">
+        <v>552021</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>119</v>
+      </c>
+      <c r="D20" s="7">
+        <v>130786</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="H20" s="7">
+        <v>94</v>
+      </c>
+      <c r="I20" s="7">
+        <v>101575</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="M20" s="7">
+        <v>213</v>
+      </c>
+      <c r="N20" s="7">
+        <v>232361</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7">
+        <v>8709</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="H21" s="7">
+        <v>12</v>
+      </c>
+      <c r="I21" s="7">
+        <v>14433</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="M21" s="7">
+        <v>19</v>
+      </c>
+      <c r="N21" s="7">
+        <v>23142</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7">
+        <v>239</v>
+      </c>
+      <c r="D22" s="7">
+        <v>269089</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="H22" s="7">
+        <v>199</v>
+      </c>
+      <c r="I22" s="7">
+        <v>216396</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="M22" s="7">
+        <v>438</v>
+      </c>
+      <c r="N22" s="7">
+        <v>485485</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>582</v>
+      </c>
+      <c r="D23" s="7">
+        <v>646048</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
+        <v>600</v>
+      </c>
+      <c r="I23" s="7">
+        <v>646961</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1182</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1293009</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>151</v>
+      </c>
+      <c r="D24" s="7">
+        <v>171131</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="H24" s="7">
+        <v>276</v>
+      </c>
+      <c r="I24" s="7">
+        <v>312217</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="M24" s="7">
+        <v>427</v>
+      </c>
+      <c r="N24" s="7">
+        <v>483348</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>143</v>
+      </c>
+      <c r="D25" s="7">
+        <v>159951</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="H25" s="7">
+        <v>58</v>
+      </c>
+      <c r="I25" s="7">
+        <v>69436</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="M25" s="7">
+        <v>201</v>
+      </c>
+      <c r="N25" s="7">
+        <v>229387</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9350</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="H26" s="7">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7">
+        <v>6679</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="7">
+        <v>14</v>
+      </c>
+      <c r="N26" s="7">
+        <v>16028</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>122</v>
+      </c>
+      <c r="D27" s="7">
+        <v>137487</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="H27" s="7">
+        <v>92</v>
+      </c>
+      <c r="I27" s="7">
+        <v>107409</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="M27" s="7">
+        <v>214</v>
+      </c>
+      <c r="N27" s="7">
+        <v>244895</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>424</v>
+      </c>
+      <c r="D28" s="7">
+        <v>477918</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
+        <v>432</v>
+      </c>
+      <c r="I28" s="7">
+        <v>495740</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="7">
+        <v>856</v>
+      </c>
+      <c r="N28" s="7">
+        <v>973658</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="7">
+        <v>132</v>
+      </c>
+      <c r="D29" s="7">
+        <v>134734</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="H29" s="7">
+        <v>297</v>
+      </c>
+      <c r="I29" s="7">
+        <v>315999</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="M29" s="7">
+        <v>429</v>
+      </c>
+      <c r="N29" s="7">
+        <v>450733</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7">
+        <v>138</v>
+      </c>
+      <c r="D30" s="7">
+        <v>141364</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="H30" s="7">
+        <v>30</v>
+      </c>
+      <c r="I30" s="7">
+        <v>31736</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="M30" s="7">
+        <v>168</v>
+      </c>
+      <c r="N30" s="7">
+        <v>173100</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>7564</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3045</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>10608</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="7">
+        <v>48</v>
+      </c>
+      <c r="D32" s="7">
+        <v>50668</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H32" s="7">
+        <v>24</v>
+      </c>
+      <c r="I32" s="7">
+        <v>26983</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="M32" s="7">
+        <v>72</v>
+      </c>
+      <c r="N32" s="7">
+        <v>77651</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>325</v>
+      </c>
+      <c r="D33" s="7">
+        <v>334330</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="7">
+        <v>354</v>
+      </c>
+      <c r="I33" s="7">
+        <v>377762</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="7">
+        <v>679</v>
+      </c>
+      <c r="N33" s="7">
+        <v>712092</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7">
+        <v>130</v>
+      </c>
+      <c r="D34" s="7">
+        <v>110164</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="H34" s="7">
+        <v>291</v>
+      </c>
+      <c r="I34" s="7">
+        <v>386503</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="M34" s="7">
+        <v>421</v>
+      </c>
+      <c r="N34" s="7">
+        <v>496667</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="7">
+        <v>141</v>
+      </c>
+      <c r="D35" s="7">
+        <v>121351</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3</v>
+      </c>
+      <c r="I35" s="7">
+        <v>4367</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="M35" s="7">
+        <v>144</v>
+      </c>
+      <c r="N35" s="7">
+        <v>125718</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="7">
+        <v>7</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5664</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="7">
+        <v>2</v>
+      </c>
+      <c r="I36" s="7">
+        <v>2711</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="M36" s="7">
+        <v>9</v>
+      </c>
+      <c r="N36" s="7">
+        <v>8375</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="7">
+        <v>23</v>
+      </c>
+      <c r="D37" s="7">
+        <v>18955</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="H37" s="7">
+        <v>4</v>
+      </c>
+      <c r="I37" s="7">
+        <v>5303</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="M37" s="7">
+        <v>27</v>
+      </c>
+      <c r="N37" s="7">
+        <v>24257</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
+        <v>301</v>
+      </c>
+      <c r="D38" s="7">
+        <v>256133</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>300</v>
+      </c>
+      <c r="I38" s="7">
+        <v>398884</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>601</v>
+      </c>
+      <c r="N38" s="7">
+        <v>655017</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1446</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1504736</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2073</v>
+      </c>
+      <c r="I39" s="7">
+        <v>2227448</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3519</v>
+      </c>
+      <c r="N39" s="7">
+        <v>3732184</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>676</v>
+      </c>
+      <c r="D40" s="7">
+        <v>697944</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="H40" s="7">
+        <v>365</v>
+      </c>
+      <c r="I40" s="7">
+        <v>387179</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1041</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1085124</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>88</v>
+      </c>
+      <c r="D41" s="7">
+        <v>93364</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="H41" s="7">
+        <v>72</v>
+      </c>
+      <c r="I41" s="7">
+        <v>74404</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="M41" s="7">
+        <v>160</v>
+      </c>
+      <c r="N41" s="7">
+        <v>167768</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1019</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1096370</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H42" s="7">
+        <v>823</v>
+      </c>
+      <c r="I42" s="7">
+        <v>850072</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1842</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1946442</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>3229</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3392414</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
+        <v>3333</v>
+      </c>
+      <c r="I43" s="7">
+        <v>3539103</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
+        <v>6562</v>
+      </c>
+      <c r="N43" s="7">
+        <v>6931517</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P23-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2007</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5340,7 +5340,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2012</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10135,7 +10135,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2016</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
